--- a/supplementary-table-1.xlsx
+++ b/supplementary-table-1.xlsx
@@ -1,31 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20376"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\PycharmProjects\gnnom2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\PycharmProjects\gnnom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B690B4A-FD8F-456A-B073-0DC8964A548B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6B60A2-2095-43AA-ACD2-7927673A99CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10218" xr2:uid="{C47A4304-5FC5-451D-BF91-DAAF6AE56D4A}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C47A4304-5FC5-451D-BF91-DAAF6AE56D4A}"/>
   </bookViews>
   <sheets>
-    <sheet name="all data clean" sheetId="1" r:id="rId1"/>
+    <sheet name="SASBDB benchmark" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -33,9 +38,6 @@
     <t>description</t>
   </si>
   <si>
-    <t>ref</t>
-  </si>
-  <si>
     <t>Dmax predicted</t>
   </si>
   <si>
@@ -60,9 +62,6 @@
     <t xml:space="preserve">Aldolase </t>
   </si>
   <si>
-    <t>Mylonas</t>
-  </si>
-  <si>
     <t>Dmax error</t>
   </si>
   <si>
@@ -78,9 +77,6 @@
     <t>BSA monomer</t>
   </si>
   <si>
-    <t>Trewhella</t>
-  </si>
-  <si>
     <t>SASDBT4</t>
   </si>
   <si>
@@ -102,12 +98,6 @@
     <t>BSA minomer:dimer mixture</t>
   </si>
   <si>
-    <t>Machine Learning Methods</t>
-  </si>
-  <si>
-    <t>BSA mixture</t>
-  </si>
-  <si>
     <t>SASDCQ2</t>
   </si>
   <si>
@@ -144,9 +134,6 @@
     <t>Human serum albumin</t>
   </si>
   <si>
-    <t>Correlation Map</t>
-  </si>
-  <si>
     <t>SASDDJ3</t>
   </si>
   <si>
@@ -229,6 +216,30 @@
   </si>
   <si>
     <t>Dmax relative error</t>
+  </si>
+  <si>
+    <t>10.3390/cryst10110975</t>
+  </si>
+  <si>
+    <t>DOI</t>
+  </si>
+  <si>
+    <t>10.1107/S002188980700252X</t>
+  </si>
+  <si>
+    <t>10.1107/S2059798317011597</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>10.1016/j.bpj.2018.04.018</t>
+  </si>
+  <si>
+    <t>10.1038/nmeth.3358</t>
+  </si>
+  <si>
+    <t>no model</t>
   </si>
 </sst>
 </file>
@@ -238,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,9 +280,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="9" tint="0.39997558519241921"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -294,22 +325,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -626,21 +663,22 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="25.89453125" customWidth="1"/>
-    <col min="4" max="4" width="15.20703125" customWidth="1"/>
-    <col min="5" max="6" width="8.83984375" style="1"/>
-    <col min="7" max="7" width="8.83984375" style="2"/>
-    <col min="8" max="9" width="8.83984375" style="1"/>
-    <col min="10" max="10" width="8.83984375" style="2"/>
-    <col min="13" max="13" width="10.3671875" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="1"/>
+    <col min="7" max="7" width="8.85546875" style="2"/>
+    <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="2"/>
+    <col min="13" max="13" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -648,39 +686,43 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="L1" t="s">
-        <v>4</v>
-      </c>
-      <c r="N1" t="s">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
+      <c r="D2" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="E2" s="1">
         <v>147.19999999999999</v>
@@ -699,30 +741,30 @@
         <v>102.922</v>
       </c>
       <c r="J2" s="2">
-        <f>ABS(I2-H2)/H2</f>
+        <f t="shared" ref="J2:J10" si="1">ABS(I2-H2)/H2</f>
         <v>3.4502814258911794E-2</v>
       </c>
-      <c r="L2" s="2">
+      <c r="L2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="10">
+        <f>AVERAGE(G:G)</f>
+        <v>0.10484206505273259</v>
+      </c>
+      <c r="N2" s="10">
         <f>MEDIAN(G:G)</f>
         <v>7.3190661478599234E-2</v>
       </c>
-      <c r="M2" t="s">
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2">
-        <f>AVERAGE(G:G)</f>
-        <v>0.10484206505273259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1">
         <v>157.19999999999999</v>
@@ -741,29 +783,32 @@
         <v>125.053</v>
       </c>
       <c r="J3" s="2">
-        <f>ABS(I3-H3)/H3</f>
+        <f t="shared" si="1"/>
         <v>9.5035026269702227E-2</v>
       </c>
-      <c r="L3" s="2">
+      <c r="L3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M3" s="10">
+        <f>AVERAGE(J:J)</f>
+        <v>7.4191210872138744E-2</v>
+      </c>
+      <c r="N3" s="10">
         <f>MEDIAN(J:J)</f>
         <v>7.6708860759493666E-2</v>
       </c>
-      <c r="M3" t="s">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="2">
-        <f>AVERAGE(J:J)</f>
-        <v>7.4191210872138744E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="3">
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="12">
         <v>479</v>
       </c>
       <c r="F4" s="1">
@@ -780,19 +825,19 @@
         <v>143.14400000000001</v>
       </c>
       <c r="J4" s="2">
-        <f>ABS(I4-H4)/H4</f>
+        <f t="shared" si="1"/>
         <v>6.5059523809523803E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E5" s="1">
         <v>66.400000000000006</v>
@@ -811,16 +856,19 @@
         <v>90.914000000000001</v>
       </c>
       <c r="J5" s="2">
-        <f>ABS(I5-H5)/H5</f>
+        <f t="shared" si="1"/>
         <v>2.6928724726081557E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D6" t="s">
+        <v>66</v>
       </c>
       <c r="E6" s="1">
         <v>66.5</v>
@@ -839,16 +887,19 @@
         <v>83.97</v>
       </c>
       <c r="J6" s="2">
-        <f>ABS(I6-H6)/H6</f>
+        <f t="shared" si="1"/>
         <v>6.1473119481390413E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="1">
         <v>66.400000000000006</v>
@@ -867,16 +918,19 @@
         <v>87.393000000000001</v>
       </c>
       <c r="J7" s="2">
-        <f>ABS(I7-H7)/H7</f>
+        <f t="shared" si="1"/>
         <v>4.5719589430006528E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
+      </c>
+      <c r="D8" t="s">
+        <v>62</v>
       </c>
       <c r="E8" s="1">
         <v>66.400000000000006</v>
@@ -895,18 +949,20 @@
         <v>87.263000000000005</v>
       </c>
       <c r="J8" s="2">
-        <f>ABS(I8-H8)/H8</f>
+        <f t="shared" si="1"/>
         <v>5.6310154644749581E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9"/>
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
       <c r="E9" s="1">
         <v>132.80000000000001</v>
       </c>
@@ -924,47 +980,48 @@
         <v>138.26900000000001</v>
       </c>
       <c r="J9" s="2">
-        <f>ABS(I9-H9)/H9</f>
+        <f t="shared" si="1"/>
         <v>8.2488387524883772E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="12">
+        <v>66.5</v>
+      </c>
+      <c r="F10" s="12">
+        <v>73.356999999999999</v>
+      </c>
+      <c r="G10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.10311278195488721</v>
+      </c>
+      <c r="H10" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I10" s="12">
+        <v>108.976</v>
+      </c>
+      <c r="J10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="8">
-        <v>66.5</v>
-      </c>
-      <c r="F10" s="8">
-        <v>73.356999999999999</v>
-      </c>
-      <c r="G10" s="9">
-        <f t="shared" si="0"/>
-        <v>0.10311278195488721</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="I10" s="8">
-        <v>108.976</v>
-      </c>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" t="s">
-        <v>28</v>
-      </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1">
         <v>16.7</v>
@@ -983,16 +1040,19 @@
         <v>74.724000000000004</v>
       </c>
       <c r="J11" s="2">
-        <f>ABS(I11-H11)/H11</f>
+        <f t="shared" ref="J11:J25" si="2">ABS(I11-H11)/H11</f>
         <v>2.3616438356164435E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E12" s="1">
         <v>29.1</v>
@@ -1011,16 +1071,19 @@
         <v>57.338999999999999</v>
       </c>
       <c r="J12" s="2">
-        <f>ABS(I12-H12)/H12</f>
+        <f t="shared" si="2"/>
         <v>1.8167808219178083E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
       </c>
       <c r="E13" s="1">
         <v>239.6</v>
@@ -1039,19 +1102,19 @@
         <v>127.256</v>
       </c>
       <c r="J13" s="2">
-        <f>ABS(I13-H13)/H13</f>
+        <f t="shared" si="2"/>
         <v>0.10561251086012169</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="E14" s="1">
         <v>25.7</v>
@@ -1070,16 +1133,19 @@
         <v>58.024999999999999</v>
       </c>
       <c r="J14" s="2">
-        <f>ABS(I14-H14)/H14</f>
+        <f t="shared" si="2"/>
         <v>8.6610486891385771E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>66</v>
       </c>
       <c r="E15" s="1">
         <v>12.299999999999999</v>
@@ -1098,19 +1164,19 @@
         <v>37.06</v>
       </c>
       <c r="J15" s="2">
-        <f>ABS(I15-H15)/H15</f>
+        <f t="shared" si="2"/>
         <v>0.15446041524070264</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1">
         <v>66.5</v>
@@ -1129,19 +1195,19 @@
         <v>89.855000000000004</v>
       </c>
       <c r="J16" s="2">
-        <f>ABS(I16-H16)/H16</f>
+        <f t="shared" si="2"/>
         <v>6.1172283394497404E-4</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E17" s="1">
         <v>33</v>
@@ -1160,19 +1226,19 @@
         <v>94.350999999999999</v>
       </c>
       <c r="J17" s="2">
-        <f>ABS(I17-H17)/H17</f>
+        <f t="shared" si="2"/>
         <v>0.13076462128475552</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E18" s="1">
         <v>33</v>
@@ -1191,19 +1257,19 @@
         <v>88.783000000000001</v>
       </c>
       <c r="J18" s="2">
-        <f>ABS(I18-H18)/H18</f>
+        <f t="shared" si="2"/>
         <v>6.4034036433365332E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E19" s="1">
         <v>14.3</v>
@@ -1222,16 +1288,19 @@
         <v>49.728000000000002</v>
       </c>
       <c r="J19" s="2">
-        <f>ABS(I19-H19)/H19</f>
+        <f t="shared" si="2"/>
         <v>6.8240584598088738E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="D20" t="s">
+        <v>66</v>
       </c>
       <c r="E20" s="1">
         <v>17.100000000000001</v>
@@ -1250,16 +1319,19 @@
         <v>51.304000000000002</v>
       </c>
       <c r="J20" s="2">
-        <f>ABS(I20-H20)/H20</f>
+        <f t="shared" si="2"/>
         <v>5.6942727647301253E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>66</v>
       </c>
       <c r="E21" s="1">
         <v>17.100000000000001</v>
@@ -1278,16 +1350,19 @@
         <v>52.313000000000002</v>
       </c>
       <c r="J21" s="2">
-        <f>ABS(I21-H21)/H21</f>
+        <f t="shared" si="2"/>
         <v>7.7729707457766861E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>49</v>
+        <v>43</v>
+      </c>
+      <c r="D22" t="s">
+        <v>66</v>
       </c>
       <c r="E22" s="1">
         <v>42.9</v>
@@ -1306,16 +1381,19 @@
         <v>83.888999999999996</v>
       </c>
       <c r="J22" s="2">
-        <f>ABS(I22-H22)/H22</f>
+        <f t="shared" si="2"/>
         <v>0.10220733149389037</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D23" t="s">
+        <v>66</v>
       </c>
       <c r="E23" s="1">
         <v>16.5</v>
@@ -1334,16 +1412,19 @@
         <v>55.411000000000001</v>
       </c>
       <c r="J23" s="2">
-        <f>ABS(I23-H23)/H23</f>
+        <f t="shared" si="2"/>
         <v>0.12054600606673403</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>45</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
       </c>
       <c r="E24" s="1">
         <v>16.5</v>
@@ -1362,19 +1443,19 @@
         <v>55.859000000000002</v>
       </c>
       <c r="J24" s="2">
-        <f>ABS(I24-H24)/H24</f>
+        <f t="shared" si="2"/>
         <v>0.12960566228513648</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D25" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E25" s="1">
         <v>16.5</v>
@@ -1393,19 +1474,19 @@
         <v>54.741</v>
       </c>
       <c r="J25" s="2">
-        <f>ABS(I25-H25)/H25</f>
+        <f t="shared" si="2"/>
         <v>9.3726273726273776E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="E26" s="1">
         <v>16.5</v>
@@ -1417,16 +1498,22 @@
         <f t="shared" si="0"/>
         <v>0.37000000000000005</v>
       </c>
+      <c r="H26" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="I26" s="1">
         <v>79.417000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>52</v>
+      </c>
+      <c r="D27" t="s">
+        <v>66</v>
       </c>
       <c r="E27" s="1">
         <v>8.6</v>
@@ -1449,15 +1536,15 @@
         <v>0.10927340170194187</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D28" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="E28" s="1">
         <v>172.4</v>
@@ -1480,15 +1567,15 @@
         <v>2.8724440116845345E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="D29" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="E29" s="1">
         <v>172.8</v>
@@ -1511,12 +1598,15 @@
         <v>0.11391431353456667</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>54</v>
+      </c>
+      <c r="D30" t="s">
+        <v>66</v>
       </c>
       <c r="E30" s="1">
         <v>172.8</v>
@@ -1540,6 +1630,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D12" r:id="rId1" display="https://dx.doi.org/10.3390/cryst10110975" xr:uid="{96B6429E-5DC7-41FD-833F-DF03E5E6FD2E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/supplementary-table-1.xlsx
+++ b/supplementary-table-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\PycharmProjects\gnnom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF6B60A2-2095-43AA-ACD2-7927673A99CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196E28B-BE3D-4B22-BA35-F0BB0EEF753F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C47A4304-5FC5-451D-BF91-DAAF6AE56D4A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C47A4304-5FC5-451D-BF91-DAAF6AE56D4A}"/>
   </bookViews>
   <sheets>
     <sheet name="SASBDB benchmark" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -249,7 +249,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -278,13 +278,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF333333"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <u/>
@@ -327,9 +320,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -337,13 +330,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -663,7 +655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -675,6 +667,7 @@
     <col min="8" max="8" width="18.140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.85546875" style="2"/>
+    <col min="12" max="12" width="12" customWidth="1"/>
     <col min="13" max="13" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -706,11 +699,11 @@
       <c r="J1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>3</v>
       </c>
     </row>
@@ -744,14 +737,14 @@
         <f t="shared" ref="J2:J10" si="1">ABS(I2-H2)/H2</f>
         <v>3.4502814258911794E-2</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="9">
         <f>AVERAGE(G:G)</f>
         <v>0.10484206505273259</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="9">
         <f>MEDIAN(G:G)</f>
         <v>7.3190661478599234E-2</v>
       </c>
@@ -763,7 +756,7 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E3" s="1">
@@ -786,14 +779,14 @@
         <f t="shared" si="1"/>
         <v>9.5035026269702227E-2</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="9">
         <f>AVERAGE(J:J)</f>
         <v>7.4191210872138744E-2</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="9">
         <f>MEDIAN(J:J)</f>
         <v>7.6708860759493666E-2</v>
       </c>
@@ -805,10 +798,10 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="11">
         <v>479</v>
       </c>
       <c r="F4" s="1">
@@ -836,7 +829,7 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E5" s="1">
@@ -867,7 +860,7 @@
       <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="7" t="s">
         <v>66</v>
       </c>
       <c r="E6" s="1">
@@ -898,7 +891,7 @@
       <c r="C7" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="1">
@@ -929,7 +922,7 @@
       <c r="C8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="1">
@@ -960,7 +953,7 @@
       <c r="C9" t="s">
         <v>19</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="1">
@@ -985,30 +978,30 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="11">
         <v>66.5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="11">
         <v>73.356999999999999</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="12">
         <f t="shared" si="0"/>
         <v>0.10311278195488721</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="12">
+      <c r="I10" s="11">
         <v>108.976</v>
       </c>
       <c r="J10" s="6"/>
@@ -1020,7 +1013,7 @@
       <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E11" s="1">
@@ -1051,7 +1044,7 @@
       <c r="C12" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>62</v>
       </c>
       <c r="E12" s="1">
@@ -1113,7 +1106,7 @@
       <c r="C14" t="s">
         <v>29</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="7" t="s">
         <v>64</v>
       </c>
       <c r="E14" s="1">
@@ -1175,7 +1168,7 @@
       <c r="C16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E16" s="1">
@@ -1206,7 +1199,7 @@
       <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E17" s="1">
@@ -1237,7 +1230,7 @@
       <c r="C18" t="s">
         <v>35</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E18" s="1">
@@ -1268,7 +1261,7 @@
       <c r="C19" t="s">
         <v>38</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E19" s="1">
@@ -1454,7 +1447,7 @@
       <c r="C25" t="s">
         <v>48</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E25" s="1">
@@ -1485,7 +1478,7 @@
       <c r="C26" t="s">
         <v>50</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="7" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="1">
@@ -1543,7 +1536,7 @@
       <c r="C28" t="s">
         <v>54</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="7" t="s">
         <v>65</v>
       </c>
       <c r="E28" s="1">
@@ -1574,7 +1567,7 @@
       <c r="C29" t="s">
         <v>54</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="7" t="s">
         <v>68</v>
       </c>
       <c r="E29" s="1">
@@ -1632,8 +1625,26 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D12" r:id="rId1" display="https://dx.doi.org/10.3390/cryst10110975" xr:uid="{96B6429E-5DC7-41FD-833F-DF03E5E6FD2E}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{E9D2034E-11F0-4117-AFDE-57A7F2A5DFCA}"/>
+    <hyperlink ref="D5" r:id="rId3" xr:uid="{CC353623-D18F-4FF3-8E64-54FB27EEBEB9}"/>
+    <hyperlink ref="D11" r:id="rId4" xr:uid="{E00368F8-8B2B-44B0-B5B5-32C69EFA0D94}"/>
+    <hyperlink ref="D14" r:id="rId5" xr:uid="{CEF26C15-7CA1-4F8F-BD29-77D9C75380CB}"/>
+    <hyperlink ref="D28" r:id="rId6" xr:uid="{E577829A-59F2-46B2-87BE-FAEEAFD2F731}"/>
+    <hyperlink ref="D2" r:id="rId7" xr:uid="{09B1E8DA-683C-4181-8C6A-5C48009AFF68}"/>
+    <hyperlink ref="D4" r:id="rId8" xr:uid="{BC5492C3-AC28-47B2-9E34-37BFFD648CE5}"/>
+    <hyperlink ref="D7" r:id="rId9" xr:uid="{E2A2D3FE-F96B-499E-A2F0-90390F5D0920}"/>
+    <hyperlink ref="D8" r:id="rId10" xr:uid="{12959BCE-FB9D-446C-9149-51EFDB339117}"/>
+    <hyperlink ref="D9" r:id="rId11" xr:uid="{D1A5B720-C10D-4A36-BF15-433A80456CA6}"/>
+    <hyperlink ref="D10" r:id="rId12" xr:uid="{42331C55-73ED-4ABD-8F04-C6EA1C72DEFE}"/>
+    <hyperlink ref="D17" r:id="rId13" xr:uid="{F346D686-03EB-42F4-B287-0EB01A8C1024}"/>
+    <hyperlink ref="D18" r:id="rId14" xr:uid="{70E40B87-C718-4BAD-9BD7-6C395F57033E}"/>
+    <hyperlink ref="D25" r:id="rId15" xr:uid="{3089AB40-2A15-4F3D-9094-3B5D241A60AE}"/>
+    <hyperlink ref="D26" r:id="rId16" xr:uid="{B1D6EA78-9E53-452D-B74C-FCA445450FB0}"/>
+    <hyperlink ref="D16" r:id="rId17" xr:uid="{80966459-828B-4673-A4F9-31E62A336F07}"/>
+    <hyperlink ref="D19" r:id="rId18" xr:uid="{D8228C83-299F-4AC5-BD01-A6D9999E0818}"/>
+    <hyperlink ref="D29" r:id="rId19" xr:uid="{543366E4-B9BE-42D5-9555-065FA965DFF3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
--- a/supplementary-table-1.xlsx
+++ b/supplementary-table-1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dima\PycharmProjects\gnnom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C196E28B-BE3D-4B22-BA35-F0BB0EEF753F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C828A58E-4499-4D8E-8559-DF8A37AB8DCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C47A4304-5FC5-451D-BF91-DAAF6AE56D4A}"/>
   </bookViews>
@@ -655,7 +655,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D32" sqref="D32"/>
+      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
